--- a/Week-5-Results/time4.xlsx
+++ b/Week-5-Results/time4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amyta\OneDrive - Georgia Institute of Technology\Documents\mc-chess\Week-5-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BAFD8-D443-4302-BAC3-85A8A89C5A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4F03D3-D9A4-49D2-B0B6-DD4FD88C0D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="384" windowWidth="22668" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="1152" windowWidth="22668" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time4" sheetId="1" r:id="rId1"/>
@@ -2893,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
